--- a/figures/Table1.xlsx
+++ b/figures/Table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regi350/Library/CloudStorage/OneDrive-PNNL/Documents/GitHub/peterregier/d50_computer_vision/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{A31A3D3C-8170-5949-A39D-F1A62A0F495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FBEF7A-6A94-2F44-87A5-3180C81E5D54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D40498-B7C7-4947-B65B-8A3F2B913FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17180" xr2:uid="{C2594C85-AAC4-3B42-B9BF-A01B0C3D7F3C}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/figures/Table1.xlsx
+++ b/figures/Table1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regi350/Library/CloudStorage/OneDrive-PNNL/Documents/GitHub/peterregier/d50_computer_vision/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D40498-B7C7-4947-B65B-8A3F2B913FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{56D40498-B7C7-4947-B65B-8A3F2B913FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF0404D-A4E4-F14E-87AF-D2EC3DA79207}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17180" xr2:uid="{C2594C85-AAC4-3B42-B9BF-A01B0C3D7F3C}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>NEXSS</t>
   </si>
   <si>
-    <t>YOLO (this study)</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Approach</t>
   </si>
   <si>
-    <t xml:space="preserve">obscured/small (&lt; 2mm) grains </t>
-  </si>
-  <si>
-    <t>Photogrammetry</t>
-  </si>
-  <si>
     <t>Abeshu</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>catchment characteristics</t>
+  </si>
+  <si>
+    <t>YOLO</t>
+  </si>
+  <si>
+    <t>Object detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obscured/small (&lt; 1mm) grains </t>
   </si>
 </sst>
 </file>
@@ -210,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,36 +523,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -560,50 +560,50 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
